--- a/Bases de datos/Restricciones.xlsx
+++ b/Bases de datos/Restricciones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando.Castrillon\PycharmProjects\pythonProject\Alcaldia\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\PycharmProjects\pythonProject\Alcaldia\Ensayos\Mejoras\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F8E31A-FEAE-4274-85C3-88E9242E1B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0171EDDE-80DD-47AF-B680-A56CB54DE231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,208 +36,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Articulo</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Articulo 123</t>
-  </si>
-  <si>
-    <t>Articulo 125</t>
-  </si>
-  <si>
-    <t>Articulo 77</t>
-  </si>
-  <si>
-    <t>Articulo 124</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ARTÍCULO 77º.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>De los retiros a las quebradas y al río Aburra.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Con el propósito de conservar los retiros de algunas fuentes de agua, tanto urbanas, suburbanas como rurales, se establecen las siguientes dimensiones de los retiros al Río Aburrá y a las quebradas, así:                                                                                                                                                                                                                                                                1. Retiros al Río Aburrá:
-Sesenta (60) metros del borde superior de las placas del canal proyectado para el 
-costado sur y cuarenta y cinco (45) metros del borde superior de las placas del 
-canal proyectado para el costado Norte.
-2. Retiros a los nacimientos de las quebradas: Cien (100) metros de radio para los nacimientos en las zonas de los parques 
-naturales del Arví, el Umbí, y la Popa
-3. Retiros a las quebradas con caudales mayores a 200 litros por segundo, como en la Chuscala, Piedras Blancas, y el Limonal, serán: Veinte (20) metros de retiros en los suelos urbanos y suburbanos y treinta (30) metros de retiros para el suelo rural
-4. Retiros a las quebradas con caudales entre 200 y 100 litros por segundo, en quebradas como los Escobar y la Tolda, así: Quince (15) metros en el suelo urbano, veinte (20) metros en el suelo suburbano, treinta (30) metros en el suelo rural, Cincuenta (100) metros de radio para las quebradas que nazcan en las zonas de los parques naturales con caudales como los citados
-5. Retiros a las quebradas con caudales menores a cien (100) litros por segundo: Diez (10) metros en el suelo urbano como en el suburbano, veinte (20) metros en el suelo rural.
-Nota: Los retiros serán medidos a partir de la cota máxima de inundación, previo el análisis técnico que la gestión administrativa amerite.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">ARTÍCULO 188º Del  uso forestal. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Es la actividad localizada en los suelos Rurales que debe ser conservada permanentemente con bosques naturales o artificiales para proteger estos mismos recursos u otros naturales renovables. En esta área prevalece el efecto productor protector y sólo se permite la obtención de productos secundarios del bosque.</t>
-    </r>
-  </si>
-  <si>
-    <t>Articulo 188</t>
-  </si>
-  <si>
-    <t>Articulo 189</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ARTÍCULO 189º Del  uso agropecuario.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Son las áreas  destinadas a la agricultura y/o ganadería intensiva, el aprovechamiento de los suelos  y en general de los recursos. Dicho aprovechamiento deberá hacerse de manera tal que promueva la integralidad física del suelo rural y su capacidad productora. La actividad agropecuaria deberá desarrollarse mediante la aplicación de tecnologías apropiadas.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ARTÍCULO 125°. De la clasificación de los usos del suelos.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">                                                                                                                                                                                              1. Uso principal: Es la actividad señalada como predominante en una zona y que establece el carácter de la misma.                                                                                                                                                                              2. Uso complementario : Es toda actividad que contribuye al mejor funcionamiento de los usos o actividades designadas como principales con los cuales es compatible y por consiguiente puede funcionar en cualquier predio del sector sin afectar el uso o actividad principal.                                                                                                                                                                                                                                                                                                                                                                                                                                                        3. Uso restringido: Es aquel que por razón de la magnitud de las instalaciones requeridas o por su impacto ambiental o urbanístico pueda afectar el uso principal en una zona, de modo que para su funcionamiento se han de observar restricciones o controles, tanto de índole físico como ambiental, con base en estudios que efectúe o exija a los interesados, la secretaria de planeación.                                                                                                                                                                                                                                                                                                           4. Uso prohibido: Son los que no están de acuerdo con la vocación predominante de la zona y generan efectos negativos no mitigables sobre los usos principales y complementarios. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ARTÍCULO 123º. De las tipologías de usos del suelo.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Se establecen las siguientes tipologías:                                                                                                                                                                                                                                                                                                                                                                1.Uso residencial: Es la destinación que se da a zonas del suelo urbano para la ubicación de viviendas y de sus usos complementarios y compatibles con la vivienda.                                                                                                                                                                                                                       2. Uso comercial: Se entiende como tal las actividades dedicadas a la compraventa, intercambio de mercancías, con fines de lucro económico, ubicadas en establecimientos y zonas del suelo urbano destinadas para tal fin.                                                                                                                                                                                       3. Uso industrial: Se entiende como tal aquellas actividades que tiene por objeto el proceso de transformación de materias primas o el ensamblaje de diversos elementos para la obtención de artículos específicos de todo orden y que se realizan en zonas y edificaciones del suelo urbano y rural debidamente reglamentadas para tal fin.                                                                                                                                                                                                                                                            4. Uso institucional y de servicios: Es aquel que corresponde a servicios administrativos, servicios públicos, de culto, educacionales, de salud, de seguridad, y de protección social.                                                                                                                                         5. Uso múltiple: Es aquel que corresponde la diversificación y mezcla de usos.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ARTÍCULO 124°. De los corredores de actividad múltiple.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Son las áreas y corredores donde se quiere mantener o promover la mayor diversificación y mezcla de usos, en virtud de su esencial importancia en la consolidación del modelo de ordenamiento del territorio en lo referente a la plataforma de competitividad, conformadas por el corredor del río y los ejes estructurantes. Se establecen como corredores de actividad múltiple la troncal occidental y la troncal central.                                                                                                                                                                                                                            1. Los Centros urbanos de crecimiento. Se busca promover el desarrollo de actividades que sean compatibles con el uso residencial. Igualmente, se busca cualificar espacial y ambientalmente la periferia de estos centros controlando los procesos de deterioro que se presentan en algunas de las zonas, condicionándolas a reglamentaciones de manejo ambiental, protección del espacio público, control de accesibilidad, y cargue y descargue.                                                                                                                                      2. Los corredores de actividad múltiple. Entiéndase como tal aquella vía a largo de la cual se desplaza el transporte publico y privado en alto grado de intensidad vehicular, interconectándose sectores y/o núcleos de atracción peatonal y haciendo las veces de vía integradora entre estos y que por lo general atraen la ubicación de diversas actividades en los lotes y edificaciones localizados en sus costados, generando ejes estructurantes. Se propone como corredores de actividad múltiple los siguientes:                                                                                                                                                                                     1. Autopista Medellín-Bogota: Faja de 100 Mts Hacia ambos costados, Medidos a partir del separador de la doble calzada.                                                                                                                                                                                                                                                                                                           2. Autopista Norte: Faja de 100 Mts Hacia ambos costados Medido a partir del eje de la Autopista Norte.                                                                                                                                                                                                                                                                                                                                                3. Carrera 69: Desde el barrio Machado hasta el barrio la Misericordia, sector Convento de las Clarisas. Una faja de 30 Mts hacia ambos costados.                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                           4. Calle 50: Desde el Barrio San Juan hasta Metromezclas. Una faja de 30 Mts hacia ambos costados.                                                                                                                                                                                                                                                                                                                                                        5. Circunvalar y vía perimetral propuestas en este P.B.O.T. Una faja de 50 Mts hacia ambos costados.</t>
-    </r>
-  </si>
-  <si>
-    <t>Articulo 16</t>
-  </si>
-  <si>
-    <t>Articulo 70</t>
-  </si>
-  <si>
-    <t>ARTÍCULO 16º. Del manejo de los retiros a corrientes naturales de agua.                                                                                                                                                                                                                                                                          1. Los retiros a corrientes de agua a los que se refiere la clasificación del suelo y el plano retiros a corrientes naturales de agua son suelo de protección. Deben engramarse, arborizarse y permanecer libres de cualquier tipo de construcción, de aquellos procesos o actividades que deterioren o limiten su condición natural y de cerramientos no transparentes que impidan su disfrute visual, acondicionándolos como áreas de recreación pasiva y de preservación ambiental, o integrándolos como elemento urbanístico importante a las otras áreas verdes próximas.                                                                                             2. En suelos rurales y suburbanos los retiros a corrientes naturales de agua se tratarán y reforestarán con vegetación nativa. En el suelo urbano se tendrán en cuenta las especies apropiadas para estas áreas.                                                                                                                                                                                                                                                                                                                                                                                                                     3. Todo proyecto deberá garantizar que con sus acciones no contribuya a la disminución del rendimiento hidrológico de los cuerpos de agua y que no genere contaminación con vertimientos de aguas residuales o residuos sólidos, escombros o volúmenes de tierra. Igualmente se impedirá la tala de bosques protectores existentes, de manera que no causen la disminución del tiempo de concentración de las aguas de escorrentía, de forma que evite inundaciones.                                                                                                                                                                                                                                                                                                              4. Las tierras y escombros resultantes de los trabajos efectuados para los procesos de urbanización y de construcción, no podrán ser vertidos en los taludes o en los cauces y fajas de retiro de quebradas, arroyos, caños, manantiales o escurrideros naturales de flujo no continuo.                                                                                                                                                                                                                                                                                5. Sobre las fajas de retiros de quebradas se prohíben el cambio de zona verde por piso duro y la construcción o instalación de parqueaderos, kioscos, casetas, piscinas, antenas parabólicas, placas o zonas deportivas, zonas de depósitos, 12 tanques de almacenamiento de gas e instalaciones similares, sótanos y semisótanos.                                                                                                                                                                                   6. Estas fajas estarán constituidas, como mínimo por los diez (10) primeros metros horizontales tomados desde el borde superior del canal natural. Se podrán constituir las servidumbres a favor del Municipio de Copacabana para la conservación y mantenimiento de las corrientes de agua y no se podrán incluir dentro del cerramiento.                                                                                                                                                         7. En los retiros a las corrientes naturales de agua de los desarrollos urbanísticos y constructivos podrán constituirse servidumbres a favor de la entidad que preste los servicios públicos para la conducción de redes o el mantenimiento de estas y del cauce.                                                                                                                                                                                                                                                                                            PARÁGRAFO 1º. Se podrán requerir obras de protección complementarias a las fajas de retiros de las quebradas, si las características de los cauces, hidrodinámica de las corrientes de agua e inestabilidad de los terrenos aledaños así lo ameritan.                                                                                                                                                                                                                                                                                                                                       PARÁGRAFO 2º. En los retiros de las corrientes de agua que se encuentren invadidos por construcciones, prevalecerá el criterio de seguridad, garantizando que las viviendas no estén abocadas al riesgo hidrológico. Se podrán ejecutar obras de prevención de desastres y mitigación de la amenaza hidrológica, siempre y cuando estas obras obedezcan a un manejo integral de la microcuenca o al plan integral de ordenamiento y manejo de la misma. Es de anotar que las construcciones que queden a menos de diez (10) metros de la estructura hidráulica no deberán ser legalizadas, al igual que las localizadas sobre estas estructuras.</t>
-  </si>
-  <si>
-    <t>ARTÍCULO 70º. De los retiros a corrientes naturales de agua.                                                                                                                                                                                                                                                                                                               1. Se entiende por zona de retiro una faja lateral de terreno paralela a las líneas de máxima inundación o a los bordes del canal natural o artificial, cuyas funciones básicas son: servir como faja de protección contra inundaciones y desbordamientos y conservar el recurso hidrológico; brindar estabilidad para los taludes laterales que conforman el cañón de la corriente natural; hacer posibles servidumbres de paso para la extensión de redes de servicios públicos y mantenimiento del cauce; proporcionar áreas ornamentales, de recreación y para senderos peatonales ecológicos.                                                                                               2. La dimensión de los retiros es variable, partiendo de un retiro mínimo de protección de diez (10) metros, medidos en proyección horizontal con relación al borde de aguas máximas periódicas de la corriente natural si se tienen registros hidrológicos o en su defecto con relación a los bordes superiores del canal natural (cauce y cañón) o artificial, hasta fajas máximas de treinta (30) metros. La definición y manejo de los retiros a corrientes naturales de agua se hará acorde con las disposiciones señaladas en el presente Plan Básico de Ordenamiento. Ver Plano Retiros a corrientes naturales de agua.</t>
-  </si>
-  <si>
-    <t>Alta tension</t>
-  </si>
-  <si>
-    <t>Retiro a Líneas de Alta Tensión: Debe consultar ante EPM la tensión de las líneas que cruzan el predio, para tener el retiro exacto de estas.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Restriccion</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Retiro_Quebradas</t>
+  </si>
+  <si>
+    <t>Restriccion_Consumo</t>
+  </si>
+  <si>
+    <t>Retiro_Ley1228</t>
+  </si>
+  <si>
+    <t>Retiro_Tension</t>
+  </si>
+  <si>
+    <t>No cumple retiro de quebradas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No cumple retiro de 100 m </t>
+  </si>
+  <si>
+    <t>No cumple retiro de 20 m</t>
+  </si>
+  <si>
+    <t>No cumple retiro de lineas</t>
+  </si>
+  <si>
+    <t>4711, 4719, 5630</t>
+  </si>
+  <si>
+    <t>ciiu</t>
   </si>
 </sst>
 </file>
@@ -634,119 +468,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="178.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="89.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" ht="257.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
     </row>
@@ -816,5 +636,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>